--- a/artfynd/A 34810-2021 artfynd.xlsx
+++ b/artfynd/A 34810-2021 artfynd.xlsx
@@ -4330,7 +4330,7 @@
         <v>129188674</v>
       </c>
       <c r="B39" t="n">
-        <v>56920</v>
+        <v>57073</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
